--- a/backend/RIVN_stock_signals.xlsx
+++ b/backend/RIVN_stock_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,60 +448,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.759897772825785</v>
+        <v>3.238869809682124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.663469142534527</v>
+        <v>3.333334787738591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7156776675099166</v>
+        <v>3.036056187038873</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.068471846522995</v>
+        <v>3.867397945730607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.16561398098613</v>
+        <v>-3.42789551472091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-2.631580790454759</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.759897772825785</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.663469142534527</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7156776675099166</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-3.068471846522995</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-3.16561398098613</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>2025-06-02</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B13" t="n">
         <v>-2.959389947721188</v>
       </c>
     </row>
